--- a/assets/stages/maps/MapEditor/Room7.xlsx
+++ b/assets/stages/maps/MapEditor/Room7.xlsx
@@ -492,7 +492,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11:AC12"/>
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="3.21875" defaultRowHeight="13.8"/>
@@ -630,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>1</v>
@@ -704,31 +704,31 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L3" s="1" t="n">
         <v>-1</v>
@@ -802,31 +802,31 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L4" s="1" t="n">
         <v>-1</v>
@@ -900,31 +900,31 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L5" s="1" t="n">
         <v>-1</v>
@@ -1376,7 +1376,7 @@
         <v>-1</v>
       </c>
       <c r="AE9" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF9" s="1" t="n">
         <v>1</v>
@@ -1459,10 +1459,10 @@
         <v>-1</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="1" t="n">
         <v>-1</v>
@@ -1471,10 +1471,10 @@
         <v>-1</v>
       </c>
       <c r="AD10" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE10" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF10" s="1" t="n">
         <v>1</v>
@@ -1569,10 +1569,10 @@
         <v>-1</v>
       </c>
       <c r="AD11" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE11" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF11" s="1" t="n">
         <v>1</v>
@@ -1628,10 +1628,10 @@
         <v>-1</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S12" s="1" t="n">
         <v>-1</v>
@@ -1946,25 +1946,25 @@
         <v>-1</v>
       </c>
       <c r="Y15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF15" s="1" t="n">
         <v>1</v>
@@ -2044,25 +2044,25 @@
         <v>-1</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AB16" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AC16" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AD16" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AE16" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AF16" s="1" t="n">
         <v>1</v>
@@ -2142,25 +2142,25 @@
         <v>-1</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AB17" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AC17" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AD17" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AE17" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AF17" s="1" t="n">
         <v>1</v>
@@ -2240,25 +2240,25 @@
         <v>-1</v>
       </c>
       <c r="Y18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF18" s="1" t="n">
         <v>1</v>
@@ -2273,7 +2273,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:U5 C6:G16 C6:Q7 G6:AE9 G10:AF10 G11:AE13 G15:AE18 H7:P14 Q9:AF9 Q11:AF11 Q13:Y14 S6:AF7 V5:AF5 Z12:AF14 AA8:AF8 AD10:AD11">
+  <conditionalFormatting sqref="C3:U5 C6:Q7 C8:G16 G6:AE13 G15:X18 H7:P14 Q9:AF11 Q13:Y14 S6:AF7 V5:AF5 Z12:AF14 AA8:AF8">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>-1</formula>
     </cfRule>

--- a/assets/stages/maps/MapEditor/Room7.xlsx
+++ b/assets/stages/maps/MapEditor/Room7.xlsx
@@ -493,7 +493,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AJ15" sqref="AJ15"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="3.21875" defaultRowHeight="13.8"/>
@@ -1941,10 +1941,10 @@
         <v>-1</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="1" t="n">
         <v>1</v>
@@ -2039,13 +2039,13 @@
         <v>-1</v>
       </c>
       <c r="W16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z16" s="1" t="n">
         <v>2</v>
@@ -2137,13 +2137,13 @@
         <v>-1</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y17" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z17" s="1" t="n">
         <v>2</v>
@@ -2235,10 +2235,10 @@
         <v>-1</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="1" t="n">
         <v>1</v>

--- a/assets/stages/maps/MapEditor/Room7.xlsx
+++ b/assets/stages/maps/MapEditor/Room7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1B7F55-3A52-4F92-A5D3-906473D2F1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBFECE9-B4A9-4434-B9A5-026E718A6C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="23040" windowHeight="14100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -435,12 +435,13 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF8" sqref="AF8"/>
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -600,13 +601,13 @@
         <v>3</v>
       </c>
       <c r="T2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W2" s="1">
         <v>2</v>
@@ -683,28 +684,28 @@
         <v>-1</v>
       </c>
       <c r="O3" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="P3" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R3" s="1">
         <v>-1</v>
       </c>
       <c r="S3" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="T3" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="U3" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="V3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W3" s="1">
         <v>2</v>
@@ -784,52 +785,52 @@
         <v>-1</v>
       </c>
       <c r="P4" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R4" s="1">
         <v>-1</v>
       </c>
       <c r="S4" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="T4" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="U4" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="V4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF4" s="1">
         <v>1</v>
@@ -885,52 +886,52 @@
         <v>-1</v>
       </c>
       <c r="Q5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R5" s="1">
         <v>-1</v>
       </c>
       <c r="S5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="T5" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="U5" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="V5" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="W5" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X5" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y5" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z5" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA5" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AB5" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AC5" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AD5" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AE5" s="1">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AF5" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -989,46 +990,46 @@
         <v>-1</v>
       </c>
       <c r="S6" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="T6" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="U6" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="V6" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="W6" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X6" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y6" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z6" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA6" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AB6" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AC6" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AD6" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AE6" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF6" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1123,10 +1124,10 @@
         <v>-1</v>
       </c>
       <c r="AE7" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AF7" s="1">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -1221,7 +1222,7 @@
         <v>-1</v>
       </c>
       <c r="AE8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF8" s="1">
         <v>1</v>
@@ -1402,10 +1403,10 @@
         <v>-1</v>
       </c>
       <c r="Z10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA10" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB10" s="1">
         <v>-1</v>
@@ -1610,13 +1611,13 @@
         <v>-1</v>
       </c>
       <c r="AD12" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE12" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF12" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -1711,10 +1712,10 @@
         <v>-1</v>
       </c>
       <c r="AE13" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AF13" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
@@ -1809,10 +1810,10 @@
         <v>-1</v>
       </c>
       <c r="AE14" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AF14" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
@@ -2209,7 +2210,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:AF18">
+  <conditionalFormatting sqref="A1:AF1 A6:Q6 A2:R2 P3:R4 A3:O5 P5:Q5 S2:AF4 R5:AE6 AF5:AF11 A12:AF18 A7:AE11">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -2217,7 +2218,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:U5 V5:AF5 C6:Q7 S6:AF7 G6:AE13 H7:P14 AA8:AF8 C8:G16 Q9:AF11 Z12:AF14 Q13:Y14 G15:X18">
+  <conditionalFormatting sqref="H7:P14 C8:G16 Z14:AC14 Q13:Y14 G15:X18 P14:Q16 C6:Q7 R5:R6 P3:U4 C3:O5 P5:Q5 S5:AE7 G12:AC13 AD12:AF14 G7:AE11">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
@@ -2232,7 +2233,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
+      <selection activeCell="AF12" sqref="AF12:AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2326,7 +2327,9 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
+      <c r="R3" s="1">
+        <v>6</v>
+      </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
@@ -2408,9 +2411,6 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-      <c r="AF5" s="6">
-        <v>3</v>
-      </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -2444,9 +2444,6 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="6">
-        <v>3</v>
-      </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -2480,9 +2477,6 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
-      <c r="AF7" s="6">
-        <v>3</v>
-      </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
@@ -2652,7 +2646,9 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="3"/>
-      <c r="AF12" s="2"/>
+      <c r="AF12" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -2686,7 +2682,9 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="3"/>
-      <c r="AF13" s="2"/>
+      <c r="AF13" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -2720,7 +2718,9 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="3"/>
-      <c r="AF14" s="2"/>
+      <c r="AF14" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -2883,7 +2883,7 @@
   <dimension ref="A3:AF15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+      <selection activeCell="AK18" sqref="AK18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2893,8 +2893,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="AF8">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE11">
+        <v>7</v>
+      </c>
+      <c r="AF11">
         <v>7</v>
       </c>
     </row>
